--- a/ProjectCore/ProjectData/ClassData.xlsx
+++ b/ProjectCore/ProjectData/ClassData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -490,21 +490,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(1,63)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -542,24 +542,24 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C50" ca="1" si="0">RANDBETWEEN(1,63)</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D50" ca="1" si="1">RANDBETWEEN(0,1)</f>
@@ -567,24 +567,24 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E50" ca="1" si="2">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F50" ca="1" si="3">RANDBETWEEN(1,7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B50" ca="1" si="4">RANDBETWEEN(1,14)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -592,28 +592,28 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -624,42 +624,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -671,10 +671,10 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -696,20 +696,20 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -724,17 +724,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -746,24 +746,24 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -771,20 +771,20 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -796,24 +796,24 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -821,49 +821,49 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -871,20 +871,20 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -892,24 +892,24 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -921,24 +921,24 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -946,24 +946,24 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -971,20 +971,20 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -992,49 +992,49 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1067,39 +1067,39 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1121,24 +1121,24 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1167,24 +1167,24 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1196,10 +1196,10 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1221,24 +1221,24 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1271,49 +1271,49 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1342,24 +1342,24 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1367,74 +1367,74 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1467,28 +1467,28 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1499,21 +1499,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1521,20 +1521,20 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1542,24 +1542,24 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1571,74 +1571,74 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1646,35 +1646,35 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1696,24 +1696,24 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectCore/ProjectData/ClassData.xlsx
+++ b/ProjectCore/ProjectData/ClassData.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -530,11 +530,10 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">RANDBETWEEN(1,63)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -546,7 +545,7 @@
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -555,23 +554,22 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C50" ca="1" si="0">RANDBETWEEN(1,63)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D50" ca="1" si="1">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="D3:D50" ca="1" si="0">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E50" ca="1" si="2">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <f t="shared" ref="E3:E50" ca="1" si="1">RANDBETWEEN(1,2)</f>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F50" ca="1" si="3">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <f t="shared" ref="F3:F50" ca="1" si="2">RANDBETWEEN(1,7)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -579,24 +577,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B50" ca="1" si="4">RANDBETWEEN(1,14)</f>
+        <f t="shared" ref="B4:B50" ca="1" si="3">RANDBETWEEN(1,14)</f>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -604,24 +601,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,24 +625,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -654,24 +649,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -679,23 +673,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -704,23 +697,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
       <c r="D9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -729,24 +721,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -754,24 +745,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -779,24 +769,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -804,24 +793,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -829,24 +817,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -854,24 +841,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -879,24 +865,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -904,24 +889,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,24 +913,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -954,24 +937,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -979,24 +961,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,24 +985,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,24 +1009,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,24 +1033,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,24 +1057,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,24 +1081,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,24 +1105,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,24 +1129,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,24 +1153,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,24 +1177,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1229,24 +1201,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,24 +1225,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1279,24 +1249,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1304,24 +1273,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1329,24 +1297,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,24 +1321,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1379,24 +1345,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,24 +1369,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,24 +1393,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,24 +1417,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,24 +1441,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,24 +1465,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,24 +1489,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,24 +1513,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,24 +1537,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1604,24 +1561,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,24 +1585,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,24 +1609,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,24 +1633,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,24 +1657,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1729,23 +1681,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>

--- a/ProjectCore/ProjectData/ClassData.xlsx
+++ b/ProjectCore/ProjectData/ClassData.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -488,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -529,23 +530,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(1,14)</f>
+        <f t="shared" ref="B2:B10" ca="1" si="0">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,23 +551,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">RANDBETWEEN(1,14)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D50" ca="1" si="0">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E50" ca="1" si="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F50" ca="1" si="2">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -577,23 +572,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B50" ca="1" si="3">RANDBETWEEN(1,14)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -601,23 +593,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,23 +614,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,23 +635,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -673,23 +656,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -697,23 +677,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -721,23 +698,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -745,23 +719,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,23 +740,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ref="B12:B33" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -793,23 +761,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -817,23 +782,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -841,23 +803,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,23 +824,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,23 +845,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,23 +866,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,22 +887,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -961,23 +908,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -985,23 +929,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1009,23 +950,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1033,23 +971,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1057,23 +992,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1081,23 +1013,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,23 +1034,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,23 +1055,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,23 +1076,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1177,23 +1097,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,23 +1118,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,23 +1139,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,22 +1160,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1273,431 +1181,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>34</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="2">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C38" s="2">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>38</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C40" s="2">
-        <v>39</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C41" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C42" s="2">
-        <v>41</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C43" s="2">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C45" s="2">
-        <v>44</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C46" s="2">
-        <v>45</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C47" s="2">
-        <v>46</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C48" s="2">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C50" s="2">
-        <v>49</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1705,4 +1202,691 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2">
+        <f t="shared" ref="B1:B32" ca="1" si="0">RANDBETWEEN(1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>64</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>